--- a/docs/部品一覧.xlsx
+++ b/docs/部品一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/esp32/UARTtoBluetoothSerial/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/esp32/ESP32_UART_Bluetooth_Converter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{562A25FD-0734-41A3-B3D7-B088D50330A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{562A25FD-0734-41A3-B3D7-B088D50330A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{419F6763-8B5A-4C80-8218-761967DF5478}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{130BEF6D-8CAF-4E5A-A0BC-2C487CDD98BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>U1</t>
     <phoneticPr fontId="2"/>
@@ -86,13 +86,6 @@
   <si>
     <t>R1</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>超精密級　金属皮膜チップ抵抗器　１６０８　１／１０Ｗ１００Ω±０．１％</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RG1608N-101-B-T5</t>
   </si>
   <si>
     <t>R2</t>
@@ -295,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -391,7 +384,9 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{387EA121-200A-4F8C-88BF-C6698AF9C77E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -703,7 +698,7 @@
   <dimension ref="B3:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -718,31 +713,31 @@
   <sheetData>
     <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -770,10 +765,10 @@
         <v>53</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>10</v>
@@ -782,7 +777,7 @@
     <row r="5" spans="2:14">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -803,7 +798,7 @@
         <v>177</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -811,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -823,7 +818,7 @@
         <v>550</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G5:G20" si="2">ROUNDUP($N$4/E6,0)</f>
+        <f t="shared" ref="G6:G19" si="2">ROUNDUP($N$4/E6,0)</f>
         <v>10</v>
       </c>
       <c r="H6" s="3">
@@ -835,7 +830,7 @@
         <v>550</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -843,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -867,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -899,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:14">
@@ -931,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -963,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -995,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -1003,10 +998,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -1027,18 +1022,18 @@
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -1059,18 +1054,18 @@
         <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -1091,18 +1086,18 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1123,18 +1118,18 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
@@ -1155,18 +1150,18 @@
         <v>10</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E17" s="3">
         <v>10</v>
@@ -1187,18 +1182,18 @@
         <v>30</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -1219,18 +1214,18 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -1251,13 +1246,13 @@
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
@@ -1278,7 +1273,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -1286,7 +1281,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="3">
         <f>SUM(H4,H6:H19)</f>
@@ -1299,7 +1294,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <f>SUM(H4:H20)</f>
